--- a/data/trans_orig/P19C09-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>5689</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2032</v>
+        <v>2016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11919</v>
+        <v>12303</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01472649905437008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005260639619850542</v>
+        <v>0.005219224831615346</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0308528503441445</v>
+        <v>0.03184748355577414</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -764,19 +764,19 @@
         <v>7491</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3010</v>
+        <v>2938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14386</v>
+        <v>15402</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02792338659318236</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01121993086114836</v>
+        <v>0.01095116808025445</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05362218076678992</v>
+        <v>0.05740858228846374</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -785,19 +785,19 @@
         <v>13180</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7581</v>
+        <v>7696</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22248</v>
+        <v>21937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02013531906230656</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0115819421623413</v>
+        <v>0.01175653777762617</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03398733675571279</v>
+        <v>0.03351303969802619</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>380613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>374383</v>
+        <v>373999</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>384270</v>
+        <v>384286</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9852735009456299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9691471496558552</v>
+        <v>0.9681525164442257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9947393603801493</v>
+        <v>0.9947807751683846</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>255</v>
@@ -835,19 +835,19 @@
         <v>260796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253901</v>
+        <v>252885</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>265277</v>
+        <v>265349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9720766134068176</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9463778192332101</v>
+        <v>0.942591417711537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9887800691388516</v>
+        <v>0.9890488319197456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>618</v>
@@ -856,19 +856,19 @@
         <v>641410</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>632342</v>
+        <v>632653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>647009</v>
+        <v>646894</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9798646809376934</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9660126632442873</v>
+        <v>0.9664869603019737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9884180578376587</v>
+        <v>0.9882434622223738</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>5729</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1916</v>
+        <v>1950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13288</v>
+        <v>13316</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01908509058658556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006382263416341499</v>
+        <v>0.006496575080677926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04426152239899828</v>
+        <v>0.04435749920014635</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -981,19 +981,19 @@
         <v>7110</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2958</v>
+        <v>3216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13952</v>
+        <v>14589</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0214450097931794</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008922314671692614</v>
+        <v>0.009699562981582805</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04208239868109738</v>
+        <v>0.04400604594673159</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1002,19 +1002,19 @@
         <v>12839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7142</v>
+        <v>6676</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22208</v>
+        <v>22135</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02032355720391551</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01130530141192333</v>
+        <v>0.01056802649928175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03515379160660132</v>
+        <v>0.0350377917159879</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>294476</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286917</v>
+        <v>286889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>298289</v>
+        <v>298255</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9809149094134144</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9557384776009992</v>
+        <v>0.9556425007998541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9936177365836585</v>
+        <v>0.9935034249193223</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -1052,19 +1052,19 @@
         <v>324419</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>317577</v>
+        <v>316940</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328571</v>
+        <v>328313</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9785549902068206</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9579176013189028</v>
+        <v>0.9559939540532684</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9910776853283074</v>
+        <v>0.9903004370184172</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>593</v>
@@ -1073,19 +1073,19 @@
         <v>618896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>609527</v>
+        <v>609600</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>624593</v>
+        <v>625059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9796764427960845</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9648462083933981</v>
+        <v>0.9649622082840116</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9886946985880767</v>
+        <v>0.9894319735007182</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>13507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7166</v>
+        <v>7516</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22783</v>
+        <v>23915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03146821582789219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01669442897111275</v>
+        <v>0.01750959497886626</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05308042418028739</v>
+        <v>0.05571721450457959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1201,16 +1201,16 @@
         <v>1140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9960</v>
+        <v>9652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02991208090374959</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008136299396381642</v>
+        <v>0.008139319178029635</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07111040122713899</v>
+        <v>0.06890741240342582</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1219,19 +1219,19 @@
         <v>17697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10615</v>
+        <v>10275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28190</v>
+        <v>27766</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03108534739708125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01864520310414561</v>
+        <v>0.01804843270793232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04951714055463239</v>
+        <v>0.04877282687634516</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>415719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>406443</v>
+        <v>405311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>422060</v>
+        <v>421710</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9685317841721078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9469195758197126</v>
+        <v>0.9442827854954204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9833055710288872</v>
+        <v>0.9824904050211336</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>135</v>
@@ -1269,7 +1269,7 @@
         <v>135878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130108</v>
+        <v>130416</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>138928</v>
@@ -1278,10 +1278,10 @@
         <v>0.9700879190962504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9288895987728608</v>
+        <v>0.9310925875965737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9918637006036183</v>
+        <v>0.9918606808219704</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>546</v>
@@ -1290,19 +1290,19 @@
         <v>551597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>541104</v>
+        <v>541528</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>558679</v>
+        <v>559019</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9689146526029188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9504828594453678</v>
+        <v>0.9512271731236548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9813547968958546</v>
+        <v>0.9819515672920676</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>25527</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16562</v>
+        <v>16695</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36416</v>
+        <v>36778</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02937213791607488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01905681818861302</v>
+        <v>0.01920959982414137</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04190086576450351</v>
+        <v>0.04231758843078256</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1415,19 +1415,19 @@
         <v>12602</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6221</v>
+        <v>7002</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21257</v>
+        <v>22258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02113629511542541</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01043426772338142</v>
+        <v>0.01174350049269009</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03565163518456189</v>
+        <v>0.03733010859459573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -1436,19 +1436,19 @@
         <v>38129</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26330</v>
+        <v>27555</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51662</v>
+        <v>51645</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02602095494707976</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01796824432306421</v>
+        <v>0.01880444947902185</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03525631194596365</v>
+        <v>0.03524416572303948</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>843561</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>832672</v>
+        <v>832310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>852526</v>
+        <v>852393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9706278620839252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9580991342354964</v>
+        <v>0.9576824115692176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.980943181811387</v>
+        <v>0.9807904001758587</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>567</v>
@@ -1486,19 +1486,19 @@
         <v>583647</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>574992</v>
+        <v>573991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>590028</v>
+        <v>589247</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9788637048845746</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9643483648154382</v>
+        <v>0.9626698914054044</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9895657322766187</v>
+        <v>0.9882564995073101</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1405</v>
@@ -1507,19 +1507,19 @@
         <v>1427207</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1413674</v>
+        <v>1413691</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1439006</v>
+        <v>1437781</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9739790450529202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9647436880540363</v>
+        <v>0.9647558342769604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9820317556769358</v>
+        <v>0.9811955505209781</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>9326</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4723</v>
+        <v>4663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15826</v>
+        <v>16347</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0377431675797387</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01911460150292104</v>
+        <v>0.01887104142945193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06405168134088179</v>
+        <v>0.06615852848182986</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1632,19 +1632,19 @@
         <v>16183</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9632</v>
+        <v>9424</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25945</v>
+        <v>24815</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03548274908294034</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02111802270119194</v>
+        <v>0.02066320116654451</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05688766730977671</v>
+        <v>0.05440879728278671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1653,19 +1653,19 @@
         <v>25509</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16945</v>
+        <v>16458</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38905</v>
+        <v>37482</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03627703250869594</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02409851760715816</v>
+        <v>0.02340577323734911</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05532906074854286</v>
+        <v>0.05330512948700288</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>237757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>231257</v>
+        <v>230736</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>242360</v>
+        <v>242420</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9622568324202613</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9359483186591182</v>
+        <v>0.9338414715181702</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9808853984970789</v>
+        <v>0.981128958570548</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>417</v>
@@ -1703,19 +1703,19 @@
         <v>439897</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>430135</v>
+        <v>431265</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>446448</v>
+        <v>446656</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9645172509170596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9431123326902233</v>
+        <v>0.9455912027172133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.978881977298808</v>
+        <v>0.9793367988334556</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>647</v>
@@ -1724,19 +1724,19 @@
         <v>677653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>664257</v>
+        <v>665680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>686217</v>
+        <v>686704</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.963722967491304</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9446709392514575</v>
+        <v>0.9466948705129972</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9759014823928419</v>
+        <v>0.976594226762651</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>4512</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1666</v>
+        <v>999</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9478</v>
+        <v>9367</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02125846516891485</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007848559418389849</v>
+        <v>0.004706979731893896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04465659758051774</v>
+        <v>0.04413749243828213</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -1849,19 +1849,19 @@
         <v>38457</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26046</v>
+        <v>27725</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51031</v>
+        <v>52750</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0407400502606956</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02759218106023749</v>
+        <v>0.02937059589586316</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05405994096558234</v>
+        <v>0.05588127953120313</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1870,19 +1870,19 @@
         <v>42969</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31390</v>
+        <v>31262</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58195</v>
+        <v>56607</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03716399610190581</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0271494513887548</v>
+        <v>0.02703879767040922</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05033281108488788</v>
+        <v>0.04895914020006932</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>207721</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202755</v>
+        <v>202866</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>210567</v>
+        <v>211234</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9787415348310852</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9553434024194821</v>
+        <v>0.9558625075617194</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9921514405816102</v>
+        <v>0.9952930202681062</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>902</v>
@@ -1920,19 +1920,19 @@
         <v>905512</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>892938</v>
+        <v>891219</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>917923</v>
+        <v>916244</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9592599497393044</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9459400590344176</v>
+        <v>0.9441187204687969</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9724078189397626</v>
+        <v>0.9706294041041368</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1116</v>
@@ -1941,19 +1941,19 @@
         <v>1113233</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1098007</v>
+        <v>1099595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1124812</v>
+        <v>1124940</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9628360038980942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9496671889151125</v>
+        <v>0.9510408597999307</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9728505486112452</v>
+        <v>0.9729612023295908</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>64290</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50626</v>
+        <v>50042</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82704</v>
+        <v>83652</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02630363729404429</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02071324475603784</v>
+        <v>0.02047412326117936</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03383781741115519</v>
+        <v>0.0342257039381671</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>83</v>
@@ -2066,19 +2066,19 @@
         <v>86034</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69734</v>
+        <v>68594</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106562</v>
+        <v>104390</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03144295862097307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02548603959031046</v>
+        <v>0.02506913089702138</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03894533388267674</v>
+        <v>0.03815159262414797</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>146</v>
@@ -2087,19 +2087,19 @@
         <v>150323</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>128015</v>
+        <v>128321</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176654</v>
+        <v>175468</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02901816445419467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02471175245595619</v>
+        <v>0.0247707978398307</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03410091462200203</v>
+        <v>0.03387203655573037</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>2379847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2361433</v>
+        <v>2360485</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2393511</v>
+        <v>2394095</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9736963627059557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9661621825888443</v>
+        <v>0.9657742960618334</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9792867552439621</v>
+        <v>0.9795258767388209</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2592</v>
@@ -2137,19 +2137,19 @@
         <v>2650148</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2629620</v>
+        <v>2631792</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2666448</v>
+        <v>2667588</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9685570413790269</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9610546661173233</v>
+        <v>0.961848407375852</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9745139604096895</v>
+        <v>0.9749308691029787</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4925</v>
@@ -2158,19 +2158,19 @@
         <v>5029996</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5003665</v>
+        <v>5004851</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5052304</v>
+        <v>5051998</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9709818355458053</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.965899085377998</v>
+        <v>0.9661279634442695</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9752882475440438</v>
+        <v>0.9752292021601692</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>10749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5776</v>
+        <v>5862</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19199</v>
+        <v>20158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02834170434433736</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01523084045665976</v>
+        <v>0.01545782409669723</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05062347076428755</v>
+        <v>0.05315100661745102</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2525,19 +2525,19 @@
         <v>11337</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5499</v>
+        <v>5359</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20225</v>
+        <v>20499</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04012466452457021</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01946303547629536</v>
+        <v>0.01896884978913274</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07158286442840162</v>
+        <v>0.07255431988965635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2546,19 +2546,19 @@
         <v>22085</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13391</v>
+        <v>13892</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33059</v>
+        <v>32407</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03337215920700046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02023497402728814</v>
+        <v>0.02099111731527367</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04995346108429274</v>
+        <v>0.04896940206787468</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>368505</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>360055</v>
+        <v>359096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>373478</v>
+        <v>373392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9716582956556626</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9493765292357126</v>
+        <v>0.946848993382549</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9847691595433402</v>
+        <v>0.9845421759033027</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -2596,19 +2596,19 @@
         <v>271198</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>262310</v>
+        <v>262036</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>277036</v>
+        <v>277176</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9598753354754298</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9284171355715986</v>
+        <v>0.9274456801103436</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9805369645237048</v>
+        <v>0.9810311502108672</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>588</v>
@@ -2617,19 +2617,19 @@
         <v>639704</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>628730</v>
+        <v>629382</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>648398</v>
+        <v>647897</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9666278407929996</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9500465389157077</v>
+        <v>0.951030597932126</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9797650259727121</v>
+        <v>0.9790088826847267</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>7121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2860</v>
+        <v>2894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15761</v>
+        <v>15342</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01914258608740403</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007687442228570597</v>
+        <v>0.007780572484691454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04237036941297546</v>
+        <v>0.04124461822776707</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2742,19 +2742,19 @@
         <v>13562</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7097</v>
+        <v>7035</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23983</v>
+        <v>24613</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04369344866418243</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02286398795167751</v>
+        <v>0.02266489119106043</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07726792490354892</v>
+        <v>0.07929594675366902</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -2763,19 +2763,19 @@
         <v>20683</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11788</v>
+        <v>11962</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33952</v>
+        <v>31833</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03031020732788891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01727500376646082</v>
+        <v>0.01752945157259961</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04975581715693118</v>
+        <v>0.04665163718760298</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>364852</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356212</v>
+        <v>356631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>369113</v>
+        <v>369079</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.980857413912596</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9576296305870248</v>
+        <v>0.9587553817722325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9923125577714295</v>
+        <v>0.9922194275153083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>268</v>
@@ -2813,19 +2813,19 @@
         <v>296831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>286410</v>
+        <v>285780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>303296</v>
+        <v>303358</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9563065513358175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9227320750964512</v>
+        <v>0.9207040532463308</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9771360120483226</v>
+        <v>0.9773351088089395</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>596</v>
@@ -2834,19 +2834,19 @@
         <v>661683</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>648414</v>
+        <v>650533</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>670578</v>
+        <v>670404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9696897926721111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9502441828430688</v>
+        <v>0.953348362812396</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.982724996233539</v>
+        <v>0.9824705484274003</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>10938</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5885</v>
+        <v>5803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19981</v>
+        <v>19946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02082644168179656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01120496128665571</v>
+        <v>0.01104887389402911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03804600289602435</v>
+        <v>0.03797891885678958</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2959,19 +2959,19 @@
         <v>6979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3049</v>
+        <v>3041</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14202</v>
+        <v>14391</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02937358773190678</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01283109860546622</v>
+        <v>0.01279721028513461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05977633743482996</v>
+        <v>0.06056792915341927</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2980,19 +2980,19 @@
         <v>17917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10262</v>
+        <v>10536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28014</v>
+        <v>27315</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02348874431829101</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01345331640179103</v>
+        <v>0.01381220077195015</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03672661269167232</v>
+        <v>0.03581048873243993</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>514245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>505202</v>
+        <v>505237</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519298</v>
+        <v>519380</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9791735583182034</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9619539971039757</v>
+        <v>0.9620210811432105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9887950387133443</v>
+        <v>0.9889511261059709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>216</v>
@@ -3030,19 +3030,19 @@
         <v>230614</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>223391</v>
+        <v>223202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>234544</v>
+        <v>234552</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9706264122680932</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9402236625651698</v>
+        <v>0.9394320708465808</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9871689013945337</v>
+        <v>0.9872027897148654</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>702</v>
@@ -3051,19 +3051,19 @@
         <v>744859</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>734762</v>
+        <v>735461</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>752514</v>
+        <v>752240</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.976511255681709</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9632733873083277</v>
+        <v>0.9641895112675598</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9865466835982091</v>
+        <v>0.9861877992280493</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>11818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5833</v>
+        <v>6048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20920</v>
+        <v>20788</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01240837891925675</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006125044620381273</v>
+        <v>0.006349936375219833</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0219656547411338</v>
+        <v>0.0218267783363018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3176,19 +3176,19 @@
         <v>16578</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9560</v>
+        <v>9827</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28359</v>
+        <v>27357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02454171510714878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01415208941398378</v>
+        <v>0.01454826134923936</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04198253668850303</v>
+        <v>0.04049892133306825</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -3197,19 +3197,19 @@
         <v>28395</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19115</v>
+        <v>19088</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40622</v>
+        <v>43339</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01744313041911363</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01174231828149542</v>
+        <v>0.01172544277618652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02495382969479424</v>
+        <v>0.02662315251613177</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>940568</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>931466</v>
+        <v>931598</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>946553</v>
+        <v>946338</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9875916210807433</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9780343452588662</v>
+        <v>0.9781732216636984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9938749553796188</v>
+        <v>0.9936500636247801</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>611</v>
@@ -3247,19 +3247,19 @@
         <v>658912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>647131</v>
+        <v>648133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>665930</v>
+        <v>665663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9754582848928512</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9580174633114965</v>
+        <v>0.9595010786669317</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9858479105860162</v>
+        <v>0.9854517386507605</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1495</v>
@@ -3268,19 +3268,19 @@
         <v>1599481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1587254</v>
+        <v>1584537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1608761</v>
+        <v>1608788</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9825568695808864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9750461703052057</v>
+        <v>0.9733768474838681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9882576817185046</v>
+        <v>0.9882745572238132</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>5102</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1105</v>
+        <v>1048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13112</v>
+        <v>13039</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01296385018844563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002807024864726908</v>
+        <v>0.002663984594526963</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03331683979364145</v>
+        <v>0.03313144950784889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3393,19 +3393,19 @@
         <v>13821</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7260</v>
+        <v>7696</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22064</v>
+        <v>22833</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02101322412575801</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01103853103273283</v>
+        <v>0.01170085404289849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03354662394644745</v>
+        <v>0.0347154067743835</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3414,19 +3414,19 @@
         <v>18923</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11361</v>
+        <v>11661</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29702</v>
+        <v>30611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01799983050994741</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0108069079964554</v>
+        <v>0.01109194218626701</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0282533327561978</v>
+        <v>0.0291178106014666</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>388455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>380445</v>
+        <v>380518</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>392452</v>
+        <v>392509</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9870361498115544</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9666831602063586</v>
+        <v>0.9668685504921516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9971929751352731</v>
+        <v>0.997336015405473</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>596</v>
@@ -3464,19 +3464,19 @@
         <v>643891</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>635648</v>
+        <v>634879</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>650452</v>
+        <v>650016</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.978986775874242</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9664533760535524</v>
+        <v>0.9652845932256159</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9889614689672671</v>
+        <v>0.9882991459571013</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>972</v>
@@ -3485,19 +3485,19 @@
         <v>1032346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1021567</v>
+        <v>1020658</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1039908</v>
+        <v>1039608</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9820001694900525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9717466672438018</v>
+        <v>0.9708821893985335</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9891930920035445</v>
+        <v>0.988908057813733</v>
       </c>
     </row>
     <row r="18">
@@ -3589,19 +3589,19 @@
         <v>3058</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8265</v>
+        <v>8432</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.014329342148496</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004262368854552225</v>
+        <v>0.004235919201746453</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03872919483094885</v>
+        <v>0.03951298488611996</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -3610,19 +3610,19 @@
         <v>23885</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15153</v>
+        <v>15358</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35564</v>
+        <v>36093</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02646806853191325</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01679201657576525</v>
+        <v>0.01701964804098283</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03941114132730451</v>
+        <v>0.03999700440414262</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -3631,19 +3631,19 @@
         <v>26943</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18574</v>
+        <v>18520</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38355</v>
+        <v>39559</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02414647738153351</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01664609624883708</v>
+        <v>0.01659817326527476</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0343745623308717</v>
+        <v>0.03545353980656144</v>
       </c>
     </row>
     <row r="20">
@@ -3660,19 +3660,19 @@
         <v>210344</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>205137</v>
+        <v>204970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212492</v>
+        <v>212498</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.985670657851504</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9612708051690513</v>
+        <v>0.96048701511388</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9957376311454478</v>
+        <v>0.9957640807982536</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>827</v>
@@ -3681,19 +3681,19 @@
         <v>878511</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>866832</v>
+        <v>866303</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>887243</v>
+        <v>887038</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9735319314680867</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9605888586726955</v>
+        <v>0.9600029955958573</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9832079834242348</v>
+        <v>0.9829803519590172</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1036</v>
@@ -3702,19 +3702,19 @@
         <v>1088855</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1077443</v>
+        <v>1076239</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1097224</v>
+        <v>1097278</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9758535226184665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9656254376691283</v>
+        <v>0.9645464601934386</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9833539037511629</v>
+        <v>0.9834018267347253</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>48784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35734</v>
+        <v>35676</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64601</v>
+        <v>65606</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01720332486556457</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01260137781006915</v>
+        <v>0.01258090645286845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02278082843783208</v>
+        <v>0.02313536019163047</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -3827,19 +3827,19 @@
         <v>86161</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67292</v>
+        <v>68784</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105970</v>
+        <v>106541</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02810090672366319</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02194706140738027</v>
+        <v>0.02243345210123643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03456169396666824</v>
+        <v>0.0347478255272947</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>122</v>
@@ -3848,19 +3848,19 @@
         <v>134945</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>113104</v>
+        <v>110576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163188</v>
+        <v>160765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02286479512914511</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01916401948832587</v>
+        <v>0.01873578744902172</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02765020235410547</v>
+        <v>0.02723956949106237</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>2786971</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2771154</v>
+        <v>2770149</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2800021</v>
+        <v>2800079</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9827966751344355</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9772191715621679</v>
+        <v>0.9768646398083696</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9873986221899308</v>
+        <v>0.9874190935471318</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2764</v>
@@ -3898,19 +3898,19 @@
         <v>2979958</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2960149</v>
+        <v>2959578</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2998827</v>
+        <v>2997335</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9718990932763368</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9654383060333318</v>
+        <v>0.9652521744727049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9780529385926197</v>
+        <v>0.9775665478987634</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5389</v>
@@ -3919,19 +3919,19 @@
         <v>5766929</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5738686</v>
+        <v>5741109</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5788770</v>
+        <v>5791298</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9771352048708549</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9723497976458944</v>
+        <v>0.9727604305089375</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.980835980511674</v>
+        <v>0.9812642125509783</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>10077</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4822</v>
+        <v>4815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19099</v>
+        <v>18675</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02599653081732672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01244060984684934</v>
+        <v>0.01242087627502479</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0492730746877533</v>
+        <v>0.04817968539792471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4286,19 +4286,19 @@
         <v>10702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5436</v>
+        <v>4964</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19930</v>
+        <v>18015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0338875375183061</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01721163214396743</v>
+        <v>0.01571688243405398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06310482633264505</v>
+        <v>0.05704150750172469</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4307,19 +4307,19 @@
         <v>20779</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13363</v>
+        <v>13099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32568</v>
+        <v>32424</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02953932329942612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01899644495604741</v>
+        <v>0.01862095491570247</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0462985559196266</v>
+        <v>0.0460945017702635</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>377537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>368515</v>
+        <v>368939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>382792</v>
+        <v>382799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9740034691826733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9507269253122467</v>
+        <v>0.9518203146020752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9875593901531505</v>
+        <v>0.9875791237249752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -4357,19 +4357,19 @@
         <v>305114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295886</v>
+        <v>297801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310380</v>
+        <v>310852</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9661124624816939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9368951736673551</v>
+        <v>0.9429584924982752</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9827883678560326</v>
+        <v>0.9842831175659458</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>645</v>
@@ -4378,19 +4378,19 @@
         <v>682651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>670862</v>
+        <v>671006</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>690067</v>
+        <v>690331</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9704606767005739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9537014440803733</v>
+        <v>0.9539054982297364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9810035550439526</v>
+        <v>0.9813790450842974</v>
       </c>
     </row>
     <row r="6">
@@ -4482,19 +4482,19 @@
         <v>5821</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2019</v>
+        <v>1983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12874</v>
+        <v>13363</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01838299509936778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006377432518640896</v>
+        <v>0.006263699910562681</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04065629879403125</v>
+        <v>0.04219863087163916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -4503,19 +4503,19 @@
         <v>10446</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5168</v>
+        <v>5601</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18707</v>
+        <v>18669</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03131424167657594</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01549252117724484</v>
+        <v>0.01679044404372082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05607953132831433</v>
+        <v>0.05596567506481266</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -4524,7 +4524,7 @@
         <v>16267</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9493</v>
+        <v>8972</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>25937</v>
@@ -4533,10 +4533,10 @@
         <v>0.02501682983555869</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01459928118267169</v>
+        <v>0.01379738422396011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03988845168549104</v>
+        <v>0.03988835953444424</v>
       </c>
     </row>
     <row r="8">
@@ -4553,19 +4553,19 @@
         <v>310837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>303784</v>
+        <v>303295</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>314639</v>
+        <v>314675</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9816170049006322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.959343701205969</v>
+        <v>0.9578013691283609</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9936225674813591</v>
+        <v>0.9937363000894374</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>307</v>
@@ -4574,19 +4574,19 @@
         <v>323129</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314868</v>
+        <v>314906</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328407</v>
+        <v>327974</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9686857583234241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9439204686716854</v>
+        <v>0.9440343249351862</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.984507478822755</v>
+        <v>0.983209555956279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>598</v>
@@ -4598,16 +4598,16 @@
         <v>624295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>640739</v>
+        <v>641260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9749831701644414</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.960111548314509</v>
+        <v>0.9601116404655561</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9854007188173283</v>
+        <v>0.9862026157760401</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>10989</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5736</v>
+        <v>5818</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19195</v>
+        <v>19534</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02711798111732549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01415498705508377</v>
+        <v>0.01435886160684695</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04737005620984735</v>
+        <v>0.04820706864044394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4733,19 +4733,19 @@
         <v>10989</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5821</v>
+        <v>5861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19067</v>
+        <v>18828</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02017600251733067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01068812820053086</v>
+        <v>0.01076208511618789</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03500831401856831</v>
+        <v>0.03456944776781244</v>
       </c>
     </row>
     <row r="11">
@@ -4762,19 +4762,19 @@
         <v>394222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>386016</v>
+        <v>385677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>399475</v>
+        <v>399393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9728820188826746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9526299437901526</v>
+        <v>0.9517929313595559</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985845012944916</v>
+        <v>0.985641138393153</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -4796,19 +4796,19 @@
         <v>533644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>525566</v>
+        <v>525805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>538812</v>
+        <v>538772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9798239974826694</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9649916859814318</v>
+        <v>0.9654305522321872</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9893118717994691</v>
+        <v>0.989237914883812</v>
       </c>
     </row>
     <row r="12">
@@ -4900,19 +4900,19 @@
         <v>24394</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16272</v>
+        <v>16098</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36422</v>
+        <v>36007</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02773566334837538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01850172757350687</v>
+        <v>0.01830297514881588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04141209614633505</v>
+        <v>0.04094049238586728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -4921,19 +4921,19 @@
         <v>16808</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9811</v>
+        <v>9159</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28110</v>
+        <v>27670</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02457226453501184</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01434331334526417</v>
+        <v>0.01338988266076929</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04109522042415904</v>
+        <v>0.04045113967948474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -4942,19 +4942,19 @@
         <v>41202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30101</v>
+        <v>30640</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56172</v>
+        <v>57610</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02635170831237716</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01925206847110723</v>
+        <v>0.01959682739161853</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03592633488233521</v>
+        <v>0.0368461166095829</v>
       </c>
     </row>
     <row r="14">
@@ -4971,19 +4971,19 @@
         <v>855111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>843083</v>
+        <v>843498</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>863233</v>
+        <v>863407</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9722643366516246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9585879038536648</v>
+        <v>0.9590595076141326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9814982724264931</v>
+        <v>0.9816970248511842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>649</v>
@@ -4992,19 +4992,19 @@
         <v>667223</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>655921</v>
+        <v>656361</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>674220</v>
+        <v>674872</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9754277354649882</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.958904779575841</v>
+        <v>0.9595488603205152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9856566866547358</v>
+        <v>0.9866101173392307</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1465</v>
@@ -5013,19 +5013,19 @@
         <v>1522334</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1507364</v>
+        <v>1505926</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1533435</v>
+        <v>1532896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9736482916876228</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9640736651176648</v>
+        <v>0.9631538833904169</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9807479315288927</v>
+        <v>0.9804031726083813</v>
       </c>
     </row>
     <row r="15">
@@ -5117,19 +5117,19 @@
         <v>13834</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7445</v>
+        <v>7663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23272</v>
+        <v>22595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0325380027317408</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01751120581257792</v>
+        <v>0.01802423117580079</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05473635347034994</v>
+        <v>0.05314445353997472</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -5138,19 +5138,19 @@
         <v>15759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8952</v>
+        <v>9006</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25425</v>
+        <v>25263</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02826863461199867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01605810752949655</v>
+        <v>0.01615502947420001</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04560757413005938</v>
+        <v>0.04531599289755894</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -5159,19 +5159,19 @@
         <v>29593</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20453</v>
+        <v>20073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41634</v>
+        <v>42081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03011588840474107</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02081416166051869</v>
+        <v>0.02042783732636078</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04236876528566801</v>
+        <v>0.04282395525335429</v>
       </c>
     </row>
     <row r="17">
@@ -5188,19 +5188,19 @@
         <v>411335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>401897</v>
+        <v>402574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>417724</v>
+        <v>417506</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9674619972682592</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9452636465296501</v>
+        <v>0.9468555464600255</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9824887941874221</v>
+        <v>0.9819757688241992</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>519</v>
@@ -5209,19 +5209,19 @@
         <v>541722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>532056</v>
+        <v>532218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>548529</v>
+        <v>548475</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9717313653880013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9543924258699407</v>
+        <v>0.9546840071024411</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9839418924705033</v>
+        <v>0.9838449705258</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>915</v>
@@ -5230,19 +5230,19 @@
         <v>953057</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>941016</v>
+        <v>940569</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>962197</v>
+        <v>962577</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9698841115952589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9576312347143323</v>
+        <v>0.9571760447466457</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9791858383394817</v>
+        <v>0.9795721626736392</v>
       </c>
     </row>
     <row r="18">
@@ -5334,19 +5334,19 @@
         <v>10948</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5266</v>
+        <v>5542</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18244</v>
+        <v>19416</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04532277001867367</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02180072392763219</v>
+        <v>0.02294477364364912</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07552911621588519</v>
+        <v>0.08037953785226556</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -5355,19 +5355,19 @@
         <v>22685</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14659</v>
+        <v>14439</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34132</v>
+        <v>34476</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02748687611961751</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01776231177663996</v>
+        <v>0.01749571522370129</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04135757269681983</v>
+        <v>0.04177442992247347</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -5376,19 +5376,19 @@
         <v>33632</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23806</v>
+        <v>24383</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48371</v>
+        <v>47653</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03152519319775431</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02231451147662752</v>
+        <v>0.02285508353700059</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04534037820356124</v>
+        <v>0.04466789726197853</v>
       </c>
     </row>
     <row r="20">
@@ -5405,19 +5405,19 @@
         <v>230600</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223304</v>
+        <v>222132</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236282</v>
+        <v>236006</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9546772299813263</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9244708837841149</v>
+        <v>0.919620462147734</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9781992760723678</v>
+        <v>0.9770552263563508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>747</v>
@@ -5426,19 +5426,19 @@
         <v>802604</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>791157</v>
+        <v>790813</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>810630</v>
+        <v>810850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9725131238803825</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9586424273031803</v>
+        <v>0.9582255700775265</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9822376882233601</v>
+        <v>0.9825042847762987</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>967</v>
@@ -5447,19 +5447,19 @@
         <v>1033205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1018466</v>
+        <v>1019184</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1043031</v>
+        <v>1042454</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9684748068022457</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9546596217964388</v>
+        <v>0.9553321027380215</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9776854885233726</v>
+        <v>0.9771449164629994</v>
       </c>
     </row>
     <row r="21">
@@ -5551,19 +5551,19 @@
         <v>76062</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59389</v>
+        <v>60525</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95568</v>
+        <v>95091</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02864086144784363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.022362637890976</v>
+        <v>0.02279037231313358</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03598605868300983</v>
+        <v>0.03580631061520433</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -5572,19 +5572,19 @@
         <v>76400</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60549</v>
+        <v>60547</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96462</v>
+        <v>96622</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02675428835565068</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02120350699476544</v>
+        <v>0.02120288331497989</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03377976936605168</v>
+        <v>0.03383583661082581</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>143</v>
@@ -5593,19 +5593,19 @@
         <v>152462</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>129252</v>
+        <v>127967</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176368</v>
+        <v>179488</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02766335979620477</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02345217548120668</v>
+        <v>0.02321891648286961</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03200101052164987</v>
+        <v>0.03256710252422248</v>
       </c>
     </row>
     <row r="23">
@@ -5622,19 +5622,19 @@
         <v>2579643</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2560137</v>
+        <v>2560614</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2596316</v>
+        <v>2595180</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9713591385521564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9640139413169903</v>
+        <v>0.9641936893847957</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.977637362109024</v>
+        <v>0.9772096276868665</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2645</v>
@@ -5643,19 +5643,19 @@
         <v>2779213</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2759151</v>
+        <v>2758991</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2795064</v>
+        <v>2795066</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9732457116443494</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9662202306339484</v>
+        <v>0.9661641633891743</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9787964930052346</v>
+        <v>0.9787971166850202</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5096</v>
@@ -5664,19 +5664,19 @@
         <v>5358856</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5334950</v>
+        <v>5331830</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5382066</v>
+        <v>5383351</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9723366402037952</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9679989894783501</v>
+        <v>0.9674328974757773</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9765478245187931</v>
+        <v>0.9767810835171302</v>
       </c>
     </row>
     <row r="24">
